--- a/PRIMER/Imported Files/AveStdPA_burr.xlsx
+++ b/PRIMER/Imported Files/AveStdPA_burr.xlsx
@@ -2401,7 +2401,7 @@
         <v>0.6411941759163907</v>
       </c>
       <c r="IR2">
-        <v>6.608877473703798</v>
+        <v>6.608877473703799</v>
       </c>
       <c r="IS2">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>5.258638671063287</v>
       </c>
       <c r="D6">
-        <v>83.87827556147295</v>
+        <v>83.87827556147296</v>
       </c>
       <c r="E6">
         <v>0.1464390062778831</v>
@@ -4928,7 +4928,7 @@
         <v>0.06816993626465936</v>
       </c>
       <c r="BI6">
-        <v>0.04472701991760905</v>
+        <v>0.04472701991760904</v>
       </c>
       <c r="BJ6">
         <v>16.14044862551822</v>
@@ -4991,7 +4991,7 @@
         <v>0.1901483742486279</v>
       </c>
       <c r="CD6">
-        <v>0.9689661290197766</v>
+        <v>0.9689661290197767</v>
       </c>
       <c r="CE6">
         <v>0.2985660037613903</v>
@@ -5622,7 +5622,7 @@
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>0.2464127351523298</v>
+        <v>0.2464127351523297</v>
       </c>
       <c r="AI7">
         <v>0.2331940974477939</v>
@@ -6171,7 +6171,7 @@
         <v>0.0166543152158489</v>
       </c>
       <c r="HI7">
-        <v>0.05247516980579782</v>
+        <v>0.05247516980579783</v>
       </c>
       <c r="HJ7">
         <v>0.02077819751405802</v>
@@ -6715,7 +6715,7 @@
         <v>0.1754184077890073</v>
       </c>
       <c r="EJ8">
-        <v>0.6393496912128371</v>
+        <v>0.639349691212837</v>
       </c>
       <c r="EK8">
         <v>0.3736174022543067</v>
@@ -8863,7 +8863,7 @@
         <v>0.05442942344729936</v>
       </c>
       <c r="CC11">
-        <v>0.03670776951876793</v>
+        <v>0.03670776951876794</v>
       </c>
       <c r="CD11">
         <v>0.1429163462306808</v>
@@ -9572,7 +9572,7 @@
         <v>0.1346668202621317</v>
       </c>
       <c r="BG12">
-        <v>0.3418227828008926</v>
+        <v>0.3418227828008927</v>
       </c>
       <c r="BH12">
         <v>0.08629708360717517</v>
@@ -10960,7 +10960,7 @@
         <v>10.74301130373756</v>
       </c>
       <c r="E14">
-        <v>0.3861382943729058</v>
+        <v>0.3861382943729059</v>
       </c>
       <c r="F14">
         <v>0.3330508958356055</v>
@@ -12507,7 +12507,7 @@
         <v>0.2547507480690546</v>
       </c>
       <c r="D16">
-        <v>3.664052368978812</v>
+        <v>3.664052368978811</v>
       </c>
       <c r="E16">
         <v>1.085155470526931</v>
@@ -14459,7 +14459,7 @@
         <v>0.03150706737670939</v>
       </c>
       <c r="EH18">
-        <v>0.06021009234642677</v>
+        <v>0.06021009234642676</v>
       </c>
       <c r="EI18">
         <v>0.5009357200561102</v>
@@ -15141,7 +15141,7 @@
         <v>0.3354395119333252</v>
       </c>
       <c r="DC19">
-        <v>0.05911177746795805</v>
+        <v>0.05911177746795804</v>
       </c>
       <c r="DD19">
         <v>0</v>
@@ -15796,7 +15796,7 @@
         <v>2.07274204853813</v>
       </c>
       <c r="BO20">
-        <v>0.0355280468042414</v>
+        <v>0.03552804680424141</v>
       </c>
       <c r="BP20">
         <v>0.1274781372819981</v>
@@ -15829,7 +15829,7 @@
         <v>0.4770488700066116</v>
       </c>
       <c r="BZ20">
-        <v>0.7091771349900449</v>
+        <v>0.7091771349900448</v>
       </c>
       <c r="CA20">
         <v>0.03409291064657544</v>
@@ -15928,7 +15928,7 @@
         <v>0.01820935084679554</v>
       </c>
       <c r="DG20">
-        <v>0.01940302315194894</v>
+        <v>0.01940302315194893</v>
       </c>
       <c r="DH20">
         <v>0.01398361592314457</v>
@@ -16042,7 +16042,7 @@
         <v>5.255066205803601</v>
       </c>
       <c r="ES20">
-        <v>0.2034754719977274</v>
+        <v>0.2034754719977273</v>
       </c>
       <c r="ET20">
         <v>0.0922009219943779</v>
@@ -18403,7 +18403,7 @@
         <v>0.3013027844101995</v>
       </c>
       <c r="FE23">
-        <v>0.03513205723103653</v>
+        <v>0.03513205723103654</v>
       </c>
       <c r="FF23">
         <v>0</v>
@@ -20419,7 +20419,7 @@
         <v>0.1105926114762634</v>
       </c>
       <c r="BF26">
-        <v>0.09207972106868467</v>
+        <v>0.09207972106868466</v>
       </c>
       <c r="BG26">
         <v>0.09396832761048061</v>
@@ -21095,7 +21095,7 @@
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>0.06549015661438531</v>
+        <v>0.06549015661438533</v>
       </c>
       <c r="Z27">
         <v>0.02458001666588503</v>
@@ -21743,7 +21743,7 @@
         <v>0.06995884745664409</v>
       </c>
       <c r="IG27">
-        <v>0.02666798450207981</v>
+        <v>0.0266679845020798</v>
       </c>
       <c r="IH27">
         <v>0.03000026754407519</v>
@@ -22867,7 +22867,7 @@
         <v>0.0192920239199617</v>
       </c>
       <c r="CU29">
-        <v>0.04774813386478826</v>
+        <v>0.04774813386478825</v>
       </c>
       <c r="CV29">
         <v>0.01780699499767059</v>
@@ -23390,7 +23390,7 @@
         <v>0.02379758402955929</v>
       </c>
       <c r="O30">
-        <v>0.02408655855857918</v>
+        <v>0.02408655855857919</v>
       </c>
       <c r="P30">
         <v>0.3641518065640591</v>
@@ -23945,7 +23945,7 @@
         <v>0.05379357157705605</v>
       </c>
       <c r="GR30">
-        <v>0.09642579935367682</v>
+        <v>0.09642579935367683</v>
       </c>
       <c r="GS30">
         <v>0.06433087375484657</v>
@@ -24116,7 +24116,7 @@
         <v>0.01638186205356007</v>
       </c>
       <c r="IW30">
-        <v>0.04438394232035807</v>
+        <v>0.04438394232035808</v>
       </c>
     </row>
     <row r="31">
@@ -26514,7 +26514,7 @@
         <v>0.0332714681011733</v>
       </c>
       <c r="W34">
-        <v>0.04296004278984139</v>
+        <v>0.04296004278984138</v>
       </c>
       <c r="X34">
         <v>0.07859115640705253</v>
@@ -26559,7 +26559,7 @@
         <v>0.04802530569774285</v>
       </c>
       <c r="AL34">
-        <v>0.08104119862323333</v>
+        <v>0.08104119862323335</v>
       </c>
       <c r="AM34">
         <v>1.140973705243728</v>
@@ -27583,7 +27583,7 @@
         <v>0.7177917700589604</v>
       </c>
       <c r="DQ35">
-        <v>0.1578888191495817</v>
+        <v>0.1578888191495818</v>
       </c>
       <c r="DR35">
         <v>1.825634275892879</v>
@@ -27697,7 +27697,7 @@
         <v>0.3390636647306189</v>
       </c>
       <c r="FC35">
-        <v>0.4264832643273477</v>
+        <v>0.4264832643273478</v>
       </c>
       <c r="FD35">
         <v>0.6318426616919531</v>
@@ -30253,7 +30253,7 @@
         <v>0.02490500565012978</v>
       </c>
       <c r="IB38">
-        <v>0.08956968674278742</v>
+        <v>0.08956968674278741</v>
       </c>
       <c r="IC38">
         <v>0.03388099236393653</v>
@@ -32891,7 +32891,7 @@
         <v>0.08595651176723387</v>
       </c>
       <c r="CD42">
-        <v>0.5026239194840857</v>
+        <v>0.5026239194840856</v>
       </c>
       <c r="CE42">
         <v>0.07565980052190067</v>
@@ -33356,7 +33356,7 @@
         <v>0.03209137497992835</v>
       </c>
       <c r="IC42">
-        <v>0.06629022446200347</v>
+        <v>0.06629022446200349</v>
       </c>
       <c r="ID42">
         <v>0.06036008910927801</v>
@@ -33750,7 +33750,7 @@
         <v>0.1191612939195069</v>
       </c>
       <c r="DF43">
-        <v>0.1160287184571986</v>
+        <v>0.1160287184571985</v>
       </c>
       <c r="DG43">
         <v>0.1026510291516137</v>
@@ -35474,7 +35474,7 @@
         <v>0.0271816414443596</v>
       </c>
       <c r="FL45">
-        <v>0.3000474314385125</v>
+        <v>0.3000474314385124</v>
       </c>
       <c r="FM45">
         <v>0.07440266360587432</v>
